--- a/biology/Botanique/Sorbaria_arborea/Sorbaria_arborea.xlsx
+++ b/biology/Botanique/Sorbaria_arborea/Sorbaria_arborea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Sorbaire en arbre ou Fausse spirée arborescente (Sorbaria arborea) est une espèce de plantes à fleurs  de la famille des Rosaceae. C'est un arbuste ou petit arbre originaire de Chine.
 Nom chinois : 高丛珍珠梅
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La sorbaire en arbre a les caractéristiques suivantes :
 il s'agit d'un arbuste ou petit arbre, au feuillage caduc, pouvant atteindre dix mètres de haut ;
@@ -551,7 +565,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire de Chine : Gansu, Guizhou, Hubei, Jiangxi, Shaanxi, Sichuan et Yunnan. Elle est largement répandue actuellement dans les pays à climat tempéré.
 Son habitat naturel est semi-forestier, sur sol frais en milieu non aride. Elle prospère en lisière de forêts et en ripisylves.
@@ -583,10 +599,12 @@
           <t>Position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite en 1905 par Camillo Karl Schneider à partir d'un échantillon récolté par Aimé Constant Fidèle Henry au Hubei en Chine et déposé à l'herbier Boissier[1].
-Un synonyme est reconnu : Spiraea arborea (C.K.Schneid.) Bean, synonyme que William Jackson Bean a créé en 1916 en replaçant les espèces de Sorbaria dans le genre Spiraea[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite en 1905 par Camillo Karl Schneider à partir d'un échantillon récolté par Aimé Constant Fidèle Henry au Hubei en Chine et déposé à l'herbier Boissier.
+Un synonyme est reconnu : Spiraea arborea (C.K.Schneid.) Bean, synonyme que William Jackson Bean a créé en 1916 en replaçant les espèces de Sorbaria dans le genre Spiraea.
 L'index GRIN en fait un synonyme de Sorbaria kirilowii (Regel &amp; Tiling) Maxim. mais n'est pas suivi en cela par le jardin botanique du Missouri ni par l'IPNI.
 Des variétés botaniques sont reconnues :
 Sorbaria arborea var. dubia (C.K.Schneid.) C.Y.Wu (1974)
@@ -619,7 +637,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce connaît un début de diffusion comme plante ornementale en France, pour sa floraison et sa robustesse (elle résiste à des températures de −25 °C).
 Des variétés horticoles sont commercialisées dont :
